--- a/Wiring/RCCar Wiring.xlsx
+++ b/Wiring/RCCar Wiring.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephhellerstein/home/Technical/Arduino/RCCar/RCCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephhellerstein/home/Technical/Arduino/RCCar/Wiring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88A5864-5A1A-5B4B-8002-8762CDCDF09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F62E8A-6F53-AF4F-910C-E09C9447F7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="3780" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{0BE17797-1956-CB45-AFDB-7B911D2BE600}"/>
+    <workbookView xWindow="16620" yWindow="1140" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{0BE17797-1956-CB45-AFDB-7B911D2BE600}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Arduino-HC05" sheetId="2" r:id="rId2"/>
-    <sheet name="Arduino-Battery-L293d-Motor" sheetId="3" r:id="rId3"/>
-    <sheet name="Arduino-UltraSonic" sheetId="4" r:id="rId4"/>
+    <sheet name="Arduino-Battery-L293d_F-Motor" sheetId="3" r:id="rId3"/>
+    <sheet name="Arduino-Battery-L293d_B-Motor" sheetId="5" r:id="rId4"/>
+    <sheet name="Arduino-UltraSonic" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>Arduino 2560</t>
   </si>
@@ -193,13 +194,19 @@
   </si>
   <si>
     <t>16: Battery +V</t>
+  </si>
+  <si>
+    <t>FRONT MOTOR DRIVER</t>
+  </si>
+  <si>
+    <t>BACK MOTOR DRIVER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,8 +237,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +333,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -309,6 +404,21 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,13 +1092,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB3C5E4-6455-924D-A0CC-57AFD7392838}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,12 +1352,380 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
+    <row r="22" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700F51A8-449D-DA44-88E3-D7CBBE9512A0}">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>29</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>26</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>31</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>30</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>33</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="23"/>
+    </row>
+    <row r="11" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+    </row>
+    <row r="14" spans="1:18" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+    </row>
+    <row r="23" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D2A009-778F-3F4C-8093-CF2587473A17}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Wiring/RCCar Wiring.xlsx
+++ b/Wiring/RCCar Wiring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephhellerstein/home/Technical/Arduino/RCCar/Wiring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F62E8A-6F53-AF4F-910C-E09C9447F7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D12729-C870-6242-99D0-EF33AFC56F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="1140" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{0BE17797-1956-CB45-AFDB-7B911D2BE600}"/>
+    <workbookView xWindow="7800" yWindow="1140" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{0BE17797-1956-CB45-AFDB-7B911D2BE600}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
   <si>
     <t>Arduino 2560</t>
   </si>
@@ -200,13 +200,40 @@
   </si>
   <si>
     <t>BACK MOTOR DRIVER</t>
+  </si>
+  <si>
+    <t>US-Front</t>
+  </si>
+  <si>
+    <t>US-Back</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>Trig</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>US-Left</t>
+  </si>
+  <si>
+    <t>US-Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +306,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,6 +454,9 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,10 +774,10 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1060,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700F51A8-449D-DA44-88E3-D7CBBE9512A0}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1727,12 +1765,155 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D2A009-778F-3F4C-8093-CF2587473A17}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12:P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="O12" s="32"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="21"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Wiring/RCCar Wiring.xlsx
+++ b/Wiring/RCCar Wiring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephhellerstein/home/Technical/Arduino/RCCar/Wiring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D12729-C870-6242-99D0-EF33AFC56F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCF0FC4-7F0D-2240-9F01-82E0CCA72017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="1140" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{0BE17797-1956-CB45-AFDB-7B911D2BE600}"/>
+    <workbookView xWindow="7800" yWindow="1140" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{0BE17797-1956-CB45-AFDB-7B911D2BE600}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,14 +1362,14 @@
         <v>35</v>
       </c>
       <c r="D13" s="2"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="12"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="M13" s="12"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
@@ -1378,15 +1378,14 @@
         <v>36</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="13"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="13"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
@@ -1404,11 +1403,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700F51A8-449D-DA44-88E3-D7CBBE9512A0}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,18 +1715,16 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="26"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="26"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="16"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
     </row>
@@ -1738,18 +1735,16 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="27"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
     </row>
@@ -1767,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D2A009-778F-3F4C-8093-CF2587473A17}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
